--- a/Docs/Unity Gantt Chart.xlsx
+++ b/Docs/Unity Gantt Chart.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>ACTIVITY</t>
   </si>
@@ -183,9 +183,6 @@
   </si>
   <si>
     <t>Test Flight 2</t>
-  </si>
-  <si>
-    <t>Skeleton GC Code</t>
   </si>
   <si>
     <t>Test Oculus Component</t>
@@ -1066,10 +1063,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BV27"/>
+  <dimension ref="A1:BV26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1105,7 +1102,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="30" t="s">
@@ -1508,7 +1505,7 @@
     </row>
     <row r="6" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>13</v>
@@ -1531,7 +1528,7 @@
     </row>
     <row r="7" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>15</v>
@@ -1574,7 +1571,7 @@
     </row>
     <row r="9" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="19">
         <v>3</v>
@@ -1586,10 +1583,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G9" s="6">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1606,10 +1603,10 @@
         <v>4</v>
       </c>
       <c r="F10" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G10" s="6">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1629,12 +1626,12 @@
         <v>1</v>
       </c>
       <c r="G11" s="6">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C12" s="19">
         <v>4</v>
@@ -1649,58 +1646,58 @@
         <v>1</v>
       </c>
       <c r="G12" s="6">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C13" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="19">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E13" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G13" s="6">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C14" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" s="19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F14" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G14" s="6">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="19">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D15" s="19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="5"/>
@@ -1708,13 +1705,13 @@
     </row>
     <row r="16" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C16" s="19">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D16" s="19">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="5"/>
@@ -1722,13 +1719,13 @@
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C17" s="19">
         <v>16</v>
       </c>
       <c r="D17" s="19">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="5"/>
@@ -1736,13 +1733,13 @@
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C18" s="19">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D18" s="19">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="5"/>
@@ -1750,13 +1747,13 @@
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C19" s="19">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D19" s="19">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="5"/>
@@ -1764,13 +1761,13 @@
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C20" s="19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="5"/>
@@ -1778,13 +1775,13 @@
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C21" s="19">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D21" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="5"/>
@@ -1792,13 +1789,13 @@
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C22" s="19">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="5"/>
@@ -1809,10 +1806,10 @@
         <v>28</v>
       </c>
       <c r="C23" s="19">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D23" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="5"/>
@@ -1820,13 +1817,13 @@
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C24" s="19">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D24" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="5"/>
@@ -1837,10 +1834,10 @@
         <v>33</v>
       </c>
       <c r="C25" s="19">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D25" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="5"/>
@@ -1848,10 +1845,10 @@
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C26" s="19">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D26" s="19">
         <v>1</v>
@@ -1859,20 +1856,6 @@
       <c r="E26" s="19"/>
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="19">
-        <v>44</v>
-      </c>
-      <c r="D27" s="19">
-        <v>1</v>
-      </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1889,7 +1872,7 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BD27">
+  <conditionalFormatting sqref="H5:BD26">
     <cfRule type="expression" dxfId="10" priority="2">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -1915,7 +1898,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:BD28">
+  <conditionalFormatting sqref="B27:BD27">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>TRUE</formula>
     </cfRule>

--- a/Docs/Unity Gantt Chart.xlsx
+++ b/Docs/Unity Gantt Chart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>ACTIVITY</t>
   </si>
@@ -213,9 +213,6 @@
   </si>
   <si>
     <t>Vision Processing Code (VR)</t>
-  </si>
-  <si>
-    <t>Vision Processing Code (GC)</t>
   </si>
   <si>
     <t>Vision Processing Code (MATLAB)</t>
@@ -1063,10 +1060,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BV26"/>
+  <dimension ref="A1:BV25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1102,7 +1099,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="30" t="s">
@@ -1583,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G9" s="6">
         <v>0.5</v>
@@ -1606,7 +1603,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1646,12 +1643,12 @@
         <v>1</v>
       </c>
       <c r="G12" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="19">
         <v>5</v>
@@ -1663,41 +1660,41 @@
         <v>5</v>
       </c>
       <c r="F13" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G13" s="6">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="19">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D14" s="19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E14" s="19">
         <v>10</v>
       </c>
       <c r="F14" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G14" s="6">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C15" s="19">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D15" s="19">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="5"/>
@@ -1705,27 +1702,33 @@
     </row>
     <row r="16" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C16" s="19">
         <v>16</v>
       </c>
       <c r="D16" s="19">
-        <v>12</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="E16" s="19">
+        <v>11</v>
+      </c>
+      <c r="F16" s="5">
+        <v>4</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C17" s="19">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D17" s="19">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="5"/>
@@ -1733,13 +1736,13 @@
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="19">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D18" s="19">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="5"/>
@@ -1747,13 +1750,13 @@
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C19" s="19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="5"/>
@@ -1761,13 +1764,13 @@
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" s="19">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D20" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="5"/>
@@ -1775,13 +1778,13 @@
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C21" s="19">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="5"/>
@@ -1789,13 +1792,13 @@
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" s="19">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D22" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="5"/>
@@ -1803,13 +1806,13 @@
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C23" s="19">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D23" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="5"/>
@@ -1817,13 +1820,13 @@
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" s="19">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D24" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="5"/>
@@ -1831,10 +1834,10 @@
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="17" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C25" s="19">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D25" s="19">
         <v>1</v>
@@ -1842,20 +1845,6 @@
       <c r="E25" s="19"/>
       <c r="F25" s="5"/>
       <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="19">
-        <v>44</v>
-      </c>
-      <c r="D26" s="19">
-        <v>1</v>
-      </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1872,7 +1861,7 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BD26">
+  <conditionalFormatting sqref="H5:BD25">
     <cfRule type="expression" dxfId="10" priority="2">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -1898,7 +1887,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:BD27">
+  <conditionalFormatting sqref="B26:BD26">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>TRUE</formula>
     </cfRule>

--- a/Docs/Unity Gantt Chart.xlsx
+++ b/Docs/Unity Gantt Chart.xlsx
@@ -1063,7 +1063,7 @@
   <dimension ref="A1:BV25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1099,7 +1099,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="30" t="s">
@@ -1580,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9" s="6">
         <v>0.5</v>
@@ -1660,7 +1660,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13" s="6">
         <v>0.5</v>
@@ -1680,10 +1680,10 @@
         <v>10</v>
       </c>
       <c r="F14" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G14" s="6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1714,10 +1714,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G16" s="6">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/Docs/Unity Gantt Chart.xlsx
+++ b/Docs/Unity Gantt Chart.xlsx
@@ -176,9 +176,6 @@
     <t>Gantt Chart</t>
   </si>
   <si>
-    <t>Do Final Presentation</t>
-  </si>
-  <si>
     <t>Test Flight 1</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
     <t>Review Code 2</t>
   </si>
   <si>
-    <t>Test Flight 3</t>
-  </si>
-  <si>
     <t>Finalized on MATLAB Computer Vision Software</t>
   </si>
   <si>
@@ -206,9 +200,6 @@
     <t>Finalized at IRIS Drones on combination of Mission Planner and Dronekit-Python</t>
   </si>
   <si>
-    <t>Review Code 3</t>
-  </si>
-  <si>
     <t>Final Test Flight</t>
   </si>
   <si>
@@ -219,6 +210,15 @@
   </si>
   <si>
     <t>VR Interface</t>
+  </si>
+  <si>
+    <t>OutBrief</t>
+  </si>
+  <si>
+    <t>Make Program Portable</t>
+  </si>
+  <si>
+    <t>Final paper</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1063,7 @@
   <dimension ref="A1:BV25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="6" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>13</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="7" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>15</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="9" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="19">
         <v>3</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="13" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" s="19">
         <v>5</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="14" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14" s="19">
         <v>13</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="16" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" s="19">
         <v>16</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="19">
         <v>20</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="19">
         <v>28</v>
@@ -1750,13 +1750,13 @@
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="19">
         <v>29</v>
       </c>
       <c r="D19" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="5"/>
@@ -1764,10 +1764,10 @@
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="19">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" s="19">
         <v>1</v>
@@ -1778,13 +1778,13 @@
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="19">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D21" s="19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="5"/>
@@ -1792,10 +1792,10 @@
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C22" s="19">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D22" s="19">
         <v>1</v>
@@ -1806,13 +1806,13 @@
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C23" s="19">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D23" s="19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="5"/>
@@ -1820,13 +1820,13 @@
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C24" s="19">
         <v>43</v>
       </c>
       <c r="D24" s="19">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="5"/>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C25" s="19">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D25" s="19">
         <v>1</v>

--- a/Docs/Unity Gantt Chart.xlsx
+++ b/Docs/Unity Gantt Chart.xlsx
@@ -1063,7 +1063,7 @@
   <dimension ref="A1:BV25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1099,7 +1099,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="10">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="30" t="s">
@@ -1580,10 +1580,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="5">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G9" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1680,10 +1680,10 @@
         <v>10</v>
       </c>
       <c r="F14" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G14" s="6">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="15" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1714,10 +1714,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G16" s="6">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1730,9 +1730,15 @@
       <c r="D17" s="19">
         <v>25</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
+      <c r="E17" s="19">
+        <v>23</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
